--- a/data/predictions/race/aff_act_hrt_wht/leveled/strongdemocrat.xlsx
+++ b/data/predictions/race/aff_act_hrt_wht/leveled/strongdemocrat.xlsx
@@ -706,7 +706,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.3598265117373335</v>
+        <v>0.6690300499882881</v>
       </c>
       <c r="D34">
         <v>0.1169948557613208</v>
@@ -720,7 +720,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.3598265117373335</v>
+        <v>-0.07268302906481827</v>
       </c>
       <c r="D35">
         <v>0.1144030838964339</v>
@@ -734,7 +734,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.3598265117373335</v>
+        <v>0.230664693193114</v>
       </c>
       <c r="D36">
         <v>0.1083977174607873</v>
@@ -748,7 +748,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.3598265117373335</v>
+        <v>0.6818816879043614</v>
       </c>
       <c r="D37">
         <v>0.1029225394872994</v>
@@ -762,7 +762,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.3598265117373335</v>
+        <v>-0.02965507845657456</v>
       </c>
       <c r="D38">
         <v>0.09736501435758682</v>
@@ -776,7 +776,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.3598265117373335</v>
+        <v>0.2505454538398612</v>
       </c>
       <c r="D39">
         <v>0.09182027912169929</v>
